--- a/src/public/uploads/Vehicles.xlsx
+++ b/src/public/uploads/Vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8c63514d4071fc/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{14703EF1-18C5-4EC5-8C94-D11DE0F8AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4C7E11-A6A2-4AE6-8194-2768E7A798C6}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{14703EF1-18C5-4EC5-8C94-D11DE0F8AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5779715D-68B7-45D6-AF23-6D4FA6B6CB38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8769E17-8002-485F-BC09-C0CEE848782E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>licensePlate</t>
   </si>
@@ -95,9 +95,6 @@
     <t>HE-21622</t>
   </si>
   <si>
-    <t>HE-21621</t>
-  </si>
-  <si>
     <t>HE-21623</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>HE-21625</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>https://cdn.honda.com.vn/motorbikes/November2022/46saHiwobvOBrrwwWMXj.png</t>
+  </si>
+  <si>
+    <t>HE-22222</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6304C932-4649-42FF-B0C8-0803AF8D18E6}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -490,16 +496,17 @@
     <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,27 +520,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -545,25 +555,28 @@
         <v>520401</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>2022</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -576,28 +589,28 @@
       <c r="D3" s="2">
         <v>520401</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>2021</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -605,26 +618,26 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2020</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -634,28 +647,28 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>2019</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -663,28 +676,28 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2018</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -692,25 +705,25 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>2017</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -718,19 +731,19 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2016</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
